--- a/behavioral_August2019/psychopy experiment/recall_instructions.xlsx
+++ b/behavioral_August2019/psychopy experiment/recall_instructions.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">There is a 5 minute time limit to make your response. </t>
   </si>
   <si>
-    <t>Please note that you will not be able to capitalize any letters except for the first letter of your answer. This will not effect the scoring of your recall answer.</t>
+    <t>Please note that you will not be able to capitalize any letters except for the first letter of your answer.</t>
   </si>
 </sst>
 </file>
